--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90447.59162679035</v>
+        <v>16232103.01733865</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90447.59162679035</v>
+        <v>16232103.01733865</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9210.665615727743</v>
+        <v>1056079.106619371</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9210.665615727743</v>
+        <v>1056079.106619371</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265814319.326302</v>
+        <v>51345952.95039107</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10038.69386085747</v>
+        <v>1135176.090841548</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19138.47655738577</v>
+        <v>2176369.188135292</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28290.51691033842</v>
+        <v>3211445.411102015</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37618.06130981739</v>
+        <v>4236534.673347236</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46912.3268387716</v>
+        <v>5274535.960241694</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56265.137754583</v>
+        <v>6311055.342119505</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65526.03975974099</v>
+        <v>7347574.723997327</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74727.12062945536</v>
+        <v>8384094.105875178</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84184.43639932398</v>
+        <v>9414998.130108852</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93135.7573449202</v>
+        <v>10449037.23507646</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102138.3311698535</v>
+        <v>11483333.64262242</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>111050.2371555142</v>
+        <v>12516749.06957832</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>119942.3470201359</v>
+        <v>13550303.71724668</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>129244.6359110056</v>
+        <v>14509429.20010825</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>139344.7297023878</v>
+        <v>15362716.90751645</v>
       </c>
     </row>
   </sheetData>
@@ -27043,7 +27043,7 @@
         <v>-2.609251729445532e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>361.000000000026</v>
@@ -27055,7 +27055,7 @@
         <v>49.00000000008754</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>2.91038304567337e-11</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,13 +27153,13 @@
         <v>58</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
